--- a/biology/Histoire de la zoologie et de la botanique/Hermann_Schlegel/Hermann_Schlegel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_Schlegel/Hermann_Schlegel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Schlegel, né le 10 juin 1804 à Altenbourg dans la duché de Saxe-Gotha-Altenbourg et mort le  17 janvier 1884 à Leyde, est un ornithologue et herpétologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est brasseur et collectionne les papillons. Il initie très tôt son fils aux sciences naturelles. La découverte, par hasard, d'un nid de buses lui fait découvrir l'étude des oiseaux. Sa vocation est encouragée par le pasteur Christian Ludwig Brehm (1787-1864), père du fameux zoologiste Alfred Edmund Brehm (1829-1884).
 Schlegel commence à travailler à la brasserie de son père mais abandonne très vite cette occupation. Il part à Vienne en Autriche en 1824 où, à l'université, il fréquente Leopold Joseph Franz Johann Fitzinger (1802-1884) et Johann Jacob Heckel (1790-1857). C'est grâce à une lettre de Brehm à Joseph Natterer, le frère du fameux explorateur, qu'il obtient un poste au Muséum de Vienne. Un an après son arrivée, le directeur de ce muséum, Carl Franz Anton Ritter von Schreibers (1775-1852), le recommande auprès de Coenraad Jacob Temminck, directeur du muséum d'histoire naturelle de Leyde, qui recherche alors un assistant.
@@ -554,7 +568,9 @@
           <t>Taxons éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs espèces lui ont été dédiées :
 Otto Finsch (1839-1917) en 1876 lui dédie le Gorfou de Schlegel (Eudyptes schlegeli).
@@ -598,7 +614,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1834-1850 : Fauna Japonica.
 1837-1844 : Abbildungen neuer oder unvollstandig bekannter Amphibien: nach der Natur oder dem Leben entworfen.
